--- a/combined_analysis/intersectional-genes/Rho_down & Exp_up & Hypo_m6A.xlsx
+++ b/combined_analysis/intersectional-genes/Rho_down & Exp_up & Hypo_m6A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
   <si>
     <t>chr</t>
   </si>
@@ -63,25 +63,64 @@
     <t>ensembl</t>
   </si>
   <si>
+    <t>chr19</t>
+  </si>
+  <si>
+    <t>chr1</t>
+  </si>
+  <si>
     <t>chr2</t>
   </si>
   <si>
+    <t>chr10</t>
+  </si>
+  <si>
+    <t>chr6</t>
+  </si>
+  <si>
+    <t>ELAVL1</t>
+  </si>
+  <si>
+    <t>UCK2</t>
+  </si>
+  <si>
     <t>ZNF514</t>
   </si>
   <si>
+    <t>PPRC1</t>
+  </si>
+  <si>
+    <t>ZBTB9</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
     <t>99</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
+    <t>ENSG00000066044.15</t>
+  </si>
+  <si>
+    <t>ENSG00000143179.16</t>
+  </si>
+  <si>
     <t>ENSG00000144026.12</t>
+  </si>
+  <si>
+    <t>ENSG00000148840.11</t>
+  </si>
+  <si>
+    <t>ENSG00000213588.6</t>
   </si>
   <si>
     <t>Exp.hl60.log2FC</t>
@@ -553,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -611,25 +650,25 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>95149692</v>
+        <v>7963546</v>
       </c>
       <c r="C2">
-        <v>95149791</v>
+        <v>7963595</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>95149692</v>
+        <v>7963546</v>
       </c>
       <c r="H2">
-        <v>95149791</v>
+        <v>7963595</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -638,45 +677,45 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M2">
-        <v>1.33758088112671</v>
+        <v>-1.03977178864497</v>
       </c>
       <c r="N2">
-        <v>9.21167586352699E-06</v>
+        <v>0.000200413727735716</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>95159084</v>
+        <v>165908177</v>
       </c>
       <c r="C3">
-        <v>95159133</v>
+        <v>165908226</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>95159084</v>
+        <v>165908177</v>
       </c>
       <c r="H3">
-        <v>95159133</v>
+        <v>165908226</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -685,19 +724,301 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3">
+        <v>-1.66869937647065</v>
+      </c>
+      <c r="N3">
+        <v>0.000571978947083718</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>95149692</v>
+      </c>
+      <c r="C4">
+        <v>95149791</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>95149692</v>
+      </c>
+      <c r="H4">
+        <v>95149791</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4">
+        <v>1.33758088112671</v>
+      </c>
+      <c r="N4">
+        <v>9.21167586352699E-06</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>95159084</v>
+      </c>
+      <c r="C5">
+        <v>95159133</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>95159084</v>
+      </c>
+      <c r="H5">
+        <v>95159133</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5">
+        <v>-4.966335035038651</v>
+      </c>
+      <c r="N5">
+        <v>6.671209667097329E-05</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>102138652</v>
+      </c>
+      <c r="C6">
+        <v>102138701</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>102138652</v>
+      </c>
+      <c r="H6">
+        <v>102138701</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6">
+        <v>5.257495372027781</v>
+      </c>
+      <c r="N6">
+        <v>0.0009363068938537109</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>102139583</v>
+      </c>
+      <c r="C7">
+        <v>102139632</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>102139583</v>
+      </c>
+      <c r="H7">
+        <v>102139632</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7">
+        <v>0.8772830710841391</v>
+      </c>
+      <c r="N7">
+        <v>0.0004716918636989981</v>
+      </c>
+      <c r="O7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>102140083</v>
+      </c>
+      <c r="C8">
+        <v>102140132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>102140083</v>
+      </c>
+      <c r="H8">
+        <v>102140132</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8">
+        <v>-1.93194344157361</v>
+      </c>
+      <c r="N8">
+        <v>2.41411519357193E-05</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3">
-        <v>-4.966335035038651</v>
-      </c>
-      <c r="N3">
-        <v>6.671209667097329E-05</v>
-      </c>
-      <c r="O3" t="s">
-        <v>21</v>
+      <c r="B9">
+        <v>33456015</v>
+      </c>
+      <c r="C9">
+        <v>33456064</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>33456015</v>
+      </c>
+      <c r="H9">
+        <v>33456064</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9">
+        <v>-1.10560532415908</v>
+      </c>
+      <c r="N9">
+        <v>0.000354722658492235</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -707,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -715,123 +1036,341 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B2">
+        <v>1.414</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.099</v>
+      </c>
+      <c r="E2">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="F2">
+        <v>-0.166</v>
+      </c>
+      <c r="G2">
+        <v>0.37</v>
+      </c>
+      <c r="H2">
+        <v>0.17</v>
+      </c>
+      <c r="I2">
+        <v>0.313</v>
+      </c>
+      <c r="J2">
+        <v>0.004</v>
+      </c>
+      <c r="K2">
+        <v>0.982</v>
+      </c>
+      <c r="L2">
+        <v>0.14</v>
+      </c>
+      <c r="M2">
+        <v>0.406</v>
+      </c>
+      <c r="Z2">
+        <v>0.408</v>
+      </c>
+      <c r="AA2">
+        <v>0.543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
         <v>0.349</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0.003</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>-0.186</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>0.633</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>0.323</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>0.517</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>-0.062</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>0.873</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>0.032</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>0.9</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>-0.22</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>0.519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>0.849</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-0.038</v>
+      </c>
+      <c r="E4">
+        <v>0.756</v>
+      </c>
+      <c r="F4">
+        <v>-0.215</v>
+      </c>
+      <c r="G4">
+        <v>0.226</v>
+      </c>
+      <c r="H4">
+        <v>-0.083</v>
+      </c>
+      <c r="I4">
+        <v>0.573</v>
+      </c>
+      <c r="J4">
+        <v>-0.205</v>
+      </c>
+      <c r="K4">
+        <v>0.243</v>
+      </c>
+      <c r="L4">
+        <v>0.047</v>
+      </c>
+      <c r="M4">
+        <v>0.709</v>
+      </c>
+      <c r="N4">
+        <v>-0.066</v>
+      </c>
+      <c r="O4">
+        <v>0.72</v>
+      </c>
+      <c r="P4">
+        <v>0.044</v>
+      </c>
+      <c r="Q4">
+        <v>0.744</v>
+      </c>
+      <c r="R4">
+        <v>0.025</v>
+      </c>
+      <c r="S4">
+        <v>0.89</v>
+      </c>
+      <c r="T4">
+        <v>0.113</v>
+      </c>
+      <c r="U4">
+        <v>0.364</v>
+      </c>
+      <c r="V4">
+        <v>-0.15</v>
+      </c>
+      <c r="W4">
+        <v>0.32</v>
+      </c>
+      <c r="X4">
+        <v>-0.124</v>
+      </c>
+      <c r="Y4">
+        <v>0.217</v>
+      </c>
+      <c r="Z4">
+        <v>0.091</v>
+      </c>
+      <c r="AA4">
+        <v>0.881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>0.745</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-0.192</v>
+      </c>
+      <c r="E5">
+        <v>0.492</v>
+      </c>
+      <c r="F5">
+        <v>-0.017</v>
+      </c>
+      <c r="G5">
+        <v>0.95</v>
+      </c>
+      <c r="H5">
+        <v>-0.005</v>
+      </c>
+      <c r="I5">
+        <v>0.982</v>
+      </c>
+      <c r="J5">
+        <v>-0.076</v>
+      </c>
+      <c r="K5">
+        <v>0.793</v>
+      </c>
+      <c r="L5">
+        <v>0.327</v>
+      </c>
+      <c r="M5">
+        <v>0.201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>0.796</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-0.181</v>
+      </c>
+      <c r="E6">
+        <v>0.317</v>
+      </c>
+      <c r="F6">
+        <v>-0.24</v>
+      </c>
+      <c r="G6">
+        <v>0.183</v>
+      </c>
+      <c r="H6">
+        <v>-0.131</v>
+      </c>
+      <c r="I6">
+        <v>0.479</v>
+      </c>
+      <c r="J6">
+        <v>-0.222</v>
+      </c>
+      <c r="K6">
+        <v>0.429</v>
+      </c>
+      <c r="L6">
+        <v>0.032</v>
+      </c>
+      <c r="M6">
+        <v>0.879</v>
+      </c>
+      <c r="Z6">
+        <v>0.06</v>
+      </c>
+      <c r="AA6">
+        <v>0.9409999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -841,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -852,81 +1391,245 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B2">
+        <v>-0.142</v>
+      </c>
+      <c r="C2">
+        <v>0.007</v>
+      </c>
+      <c r="D2">
+        <v>-0.115</v>
+      </c>
+      <c r="E2">
+        <v>0.396</v>
+      </c>
+      <c r="F2">
+        <v>0.033</v>
+      </c>
+      <c r="G2">
+        <v>0.779</v>
+      </c>
+      <c r="H2">
+        <v>-0.005</v>
+      </c>
+      <c r="I2">
+        <v>0.601</v>
+      </c>
+      <c r="J2">
+        <v>-0.019</v>
+      </c>
+      <c r="K2">
+        <v>0.7</v>
+      </c>
+      <c r="L2">
+        <v>-0.019</v>
+      </c>
+      <c r="M2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
         <v>-0.111</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0.021</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>-0.198</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>0.23</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>-0.348</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>0.247</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>0.039</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>0.454</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>0.126</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>0.196</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>0.126</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>0.196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>-0.157</v>
+      </c>
+      <c r="C4">
+        <v>0.008</v>
+      </c>
+      <c r="D4">
+        <v>-0.163</v>
+      </c>
+      <c r="E4">
+        <v>0.062</v>
+      </c>
+      <c r="F4">
+        <v>-0.061</v>
+      </c>
+      <c r="G4">
+        <v>0.584</v>
+      </c>
+      <c r="H4">
+        <v>-0.105</v>
+      </c>
+      <c r="I4">
+        <v>0.023</v>
+      </c>
+      <c r="J4">
+        <v>-0.207</v>
+      </c>
+      <c r="K4">
+        <v>0.016</v>
+      </c>
+      <c r="L4">
+        <v>-0.207</v>
+      </c>
+      <c r="M4">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>-0.179</v>
+      </c>
+      <c r="C5">
+        <v>0.063</v>
+      </c>
+      <c r="D5">
+        <v>-0.306</v>
+      </c>
+      <c r="E5">
+        <v>0.16</v>
+      </c>
+      <c r="F5">
+        <v>-0.395</v>
+      </c>
+      <c r="G5">
+        <v>0.282</v>
+      </c>
+      <c r="H5">
+        <v>-0.028</v>
+      </c>
+      <c r="I5">
+        <v>0.192</v>
+      </c>
+      <c r="J5">
+        <v>-0.048</v>
+      </c>
+      <c r="K5">
+        <v>0.285</v>
+      </c>
+      <c r="L5">
+        <v>-0.048</v>
+      </c>
+      <c r="M5">
+        <v>0.285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>-0.222</v>
+      </c>
+      <c r="C6">
+        <v>0.17</v>
+      </c>
+      <c r="D6">
+        <v>-0.159</v>
+      </c>
+      <c r="E6">
+        <v>0.059</v>
+      </c>
+      <c r="F6">
+        <v>-0.115</v>
+      </c>
+      <c r="G6">
+        <v>0.213</v>
+      </c>
+      <c r="H6">
+        <v>-0.012</v>
+      </c>
+      <c r="I6">
+        <v>0.655</v>
+      </c>
+      <c r="J6">
+        <v>-0.026</v>
+      </c>
+      <c r="K6">
+        <v>0.989</v>
+      </c>
+      <c r="L6">
+        <v>-0.026</v>
+      </c>
+      <c r="M6">
+        <v>0.989</v>
       </c>
     </row>
   </sheetData>

--- a/combined_analysis/intersectional-genes/Rho_down & Exp_up & Hypo_m6A.xlsx
+++ b/combined_analysis/intersectional-genes/Rho_down & Exp_up & Hypo_m6A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
   <si>
     <t>chr</t>
   </si>
@@ -75,6 +75,9 @@
     <t>chr10</t>
   </si>
   <si>
+    <t>chr13</t>
+  </si>
+  <si>
     <t>chr6</t>
   </si>
   <si>
@@ -90,6 +93,15 @@
     <t>PPRC1</t>
   </si>
   <si>
+    <t>GPR183</t>
+  </si>
+  <si>
+    <t>ACBD3</t>
+  </si>
+  <si>
+    <t>MTF1</t>
+  </si>
+  <si>
     <t>ZBTB9</t>
   </si>
   <si>
@@ -105,9 +117,15 @@
     <t>99</t>
   </si>
   <si>
+    <t>36,14</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
+    <t>0,814</t>
+  </si>
+  <si>
     <t>ENSG00000066044.15</t>
   </si>
   <si>
@@ -120,6 +138,15 @@
     <t>ENSG00000148840.11</t>
   </si>
   <si>
+    <t>ENSG00000169508.7</t>
+  </si>
+  <si>
+    <t>ENSG00000182827.9</t>
+  </si>
+  <si>
+    <t>ENSG00000188786.10</t>
+  </si>
+  <si>
     <t>ENSG00000213588.6</t>
   </si>
   <si>
@@ -157,42 +184,6 @@
   </si>
   <si>
     <t>Exp.thp1.pval</t>
-  </si>
-  <si>
-    <t>Stbl.hl60.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.hl60.pval</t>
-  </si>
-  <si>
-    <t>Stbl.kg1.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.kg1.pval</t>
-  </si>
-  <si>
-    <t>Stbl.molm14.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.molm14.pval</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml2.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml2.pval</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml3.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml3.pval</t>
-  </si>
-  <si>
-    <t>Stbl.thp1.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.thp1.pval</t>
   </si>
   <si>
     <t>TE.Estimate_treatmentDRUG</t>
@@ -592,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -656,13 +647,13 @@
         <v>7963595</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G2">
         <v>7963546</v>
@@ -677,10 +668,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M2">
         <v>-1.03977178864497</v>
@@ -689,7 +680,7 @@
         <v>0.000200413727735716</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -703,13 +694,13 @@
         <v>165908226</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>165908177</v>
@@ -724,10 +715,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M3">
         <v>-1.66869937647065</v>
@@ -736,7 +727,7 @@
         <v>0.000571978947083718</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -750,13 +741,13 @@
         <v>95149791</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <v>95149692</v>
@@ -771,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M4">
         <v>1.33758088112671</v>
@@ -783,7 +774,7 @@
         <v>9.21167586352699E-06</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -797,13 +788,13 @@
         <v>95159133</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <v>95159084</v>
@@ -818,10 +809,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M5">
         <v>-4.966335035038651</v>
@@ -830,7 +821,7 @@
         <v>6.671209667097329E-05</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -844,13 +835,13 @@
         <v>102138701</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>102138652</v>
@@ -865,10 +856,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M6">
         <v>5.257495372027781</v>
@@ -877,7 +868,7 @@
         <v>0.0009363068938537109</v>
       </c>
       <c r="O6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -891,13 +882,13 @@
         <v>102139632</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>102139583</v>
@@ -912,10 +903,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M7">
         <v>0.8772830710841391</v>
@@ -924,7 +915,7 @@
         <v>0.0004716918636989981</v>
       </c>
       <c r="O7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -938,13 +929,13 @@
         <v>102140132</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>102140083</v>
@@ -959,10 +950,10 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M8">
         <v>-1.93194344157361</v>
@@ -971,7 +962,7 @@
         <v>2.41411519357193E-05</v>
       </c>
       <c r="O8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -979,25 +970,25 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>33456015</v>
+        <v>99295381</v>
       </c>
       <c r="C9">
-        <v>33456064</v>
+        <v>99295430</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G9">
-        <v>33456015</v>
+        <v>99295381</v>
       </c>
       <c r="H9">
-        <v>33456064</v>
+        <v>99295430</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1006,19 +997,207 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9">
+        <v>-1.12145178063793</v>
+      </c>
+      <c r="N9">
+        <v>0.00109929271018028</v>
+      </c>
+      <c r="O9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>226152485</v>
+      </c>
+      <c r="C10">
+        <v>226152534</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>226152485</v>
+      </c>
+      <c r="H10">
+        <v>226152534</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10">
+        <v>-1.27919622556352</v>
+      </c>
+      <c r="N10">
+        <v>0.0004457410926773651</v>
+      </c>
+      <c r="O10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>37822305</v>
+      </c>
+      <c r="C11">
+        <v>37822354</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="L9" t="s">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
         <v>29</v>
       </c>
-      <c r="M9">
+      <c r="G11">
+        <v>37822305</v>
+      </c>
+      <c r="H11">
+        <v>37822354</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11">
+        <v>5.45532111534834</v>
+      </c>
+      <c r="N11">
+        <v>9.373188899486349E-07</v>
+      </c>
+      <c r="O11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>37857674</v>
+      </c>
+      <c r="C12">
+        <v>37858501</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>37857674</v>
+      </c>
+      <c r="H12">
+        <v>37858501</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12">
+        <v>-1.74296930505857</v>
+      </c>
+      <c r="N12">
+        <v>0.000485927010331788</v>
+      </c>
+      <c r="O12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>33456015</v>
+      </c>
+      <c r="C13">
+        <v>33456064</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>33456015</v>
+      </c>
+      <c r="H13">
+        <v>33456064</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13">
         <v>-1.10560532415908</v>
       </c>
-      <c r="N9">
+      <c r="N13">
         <v>0.000354722658492235</v>
       </c>
-      <c r="O9" t="s">
-        <v>34</v>
+      <c r="O13" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1028,349 +1207,418 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>0.189</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>-0.192</v>
+      </c>
+      <c r="E2">
+        <v>0.492</v>
+      </c>
+      <c r="F2">
+        <v>-0.017</v>
+      </c>
+      <c r="G2">
+        <v>0.95</v>
+      </c>
+      <c r="H2">
+        <v>-0.005</v>
+      </c>
+      <c r="I2">
+        <v>0.982</v>
+      </c>
+      <c r="J2">
+        <v>-0.076</v>
+      </c>
+      <c r="K2">
+        <v>0.793</v>
+      </c>
+      <c r="L2">
+        <v>0.327</v>
+      </c>
+      <c r="M2">
+        <v>0.201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0.117</v>
+      </c>
+      <c r="C3">
+        <v>0.001</v>
+      </c>
+      <c r="D3">
+        <v>0.097</v>
+      </c>
+      <c r="E3">
+        <v>0.905</v>
+      </c>
+      <c r="F3">
+        <v>1.199</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1.818</v>
+      </c>
+      <c r="I3">
+        <v>0.014</v>
+      </c>
+      <c r="J3">
+        <v>0.077</v>
+      </c>
+      <c r="K3">
+        <v>0.947</v>
+      </c>
+      <c r="L3">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="M3">
+        <v>0.982</v>
+      </c>
+      <c r="N3">
+        <v>-0.176</v>
+      </c>
+      <c r="O3">
+        <v>0.789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>0.7</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-0.181</v>
+      </c>
+      <c r="E4">
+        <v>0.317</v>
+      </c>
+      <c r="F4">
+        <v>-0.24</v>
+      </c>
+      <c r="G4">
+        <v>0.183</v>
+      </c>
+      <c r="H4">
+        <v>-0.131</v>
+      </c>
+      <c r="I4">
+        <v>0.479</v>
+      </c>
+      <c r="J4">
+        <v>-0.222</v>
+      </c>
+      <c r="K4">
+        <v>0.429</v>
+      </c>
+      <c r="L4">
+        <v>0.032</v>
+      </c>
+      <c r="M4">
+        <v>0.879</v>
+      </c>
+      <c r="N4">
+        <v>0.06</v>
+      </c>
+      <c r="O4">
+        <v>0.9409999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0.349</v>
+      </c>
+      <c r="C5">
+        <v>0.003</v>
+      </c>
+      <c r="D5">
+        <v>-0.186</v>
+      </c>
+      <c r="E5">
+        <v>0.633</v>
+      </c>
+      <c r="F5">
+        <v>0.323</v>
+      </c>
+      <c r="G5">
+        <v>0.517</v>
+      </c>
+      <c r="H5">
+        <v>-0.062</v>
+      </c>
+      <c r="I5">
+        <v>0.873</v>
+      </c>
+      <c r="J5">
+        <v>0.032</v>
+      </c>
+      <c r="K5">
+        <v>0.9</v>
+      </c>
+      <c r="L5">
+        <v>-0.22</v>
+      </c>
+      <c r="M5">
+        <v>0.519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>1.109</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.099</v>
+      </c>
+      <c r="E6">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="F6">
+        <v>-0.166</v>
+      </c>
+      <c r="G6">
+        <v>0.37</v>
+      </c>
+      <c r="H6">
+        <v>0.17</v>
+      </c>
+      <c r="I6">
+        <v>0.313</v>
+      </c>
+      <c r="J6">
+        <v>0.004</v>
+      </c>
+      <c r="K6">
+        <v>0.982</v>
+      </c>
+      <c r="L6">
+        <v>0.14</v>
+      </c>
+      <c r="M6">
+        <v>0.406</v>
+      </c>
+      <c r="N6">
+        <v>0.408</v>
+      </c>
+      <c r="O6">
+        <v>0.543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>0.209</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.408</v>
+      </c>
+      <c r="E7">
+        <v>0.224</v>
+      </c>
+      <c r="F7">
+        <v>-0.005</v>
+      </c>
+      <c r="G7">
+        <v>0.977</v>
+      </c>
+      <c r="H7">
+        <v>-0.034</v>
+      </c>
+      <c r="I7">
+        <v>0.84</v>
+      </c>
+      <c r="J7">
+        <v>0.278</v>
+      </c>
+      <c r="K7">
+        <v>0.272</v>
+      </c>
+      <c r="L7">
+        <v>0.165</v>
+      </c>
+      <c r="M7">
+        <v>0.319</v>
+      </c>
+      <c r="N7">
+        <v>0.015</v>
+      </c>
+      <c r="O7">
+        <v>0.991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2">
-        <v>1.414</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.099</v>
-      </c>
-      <c r="E2">
-        <v>0.5580000000000001</v>
-      </c>
-      <c r="F2">
-        <v>-0.166</v>
-      </c>
-      <c r="G2">
-        <v>0.37</v>
-      </c>
-      <c r="H2">
-        <v>0.17</v>
-      </c>
-      <c r="I2">
-        <v>0.313</v>
-      </c>
-      <c r="J2">
-        <v>0.004</v>
-      </c>
-      <c r="K2">
-        <v>0.982</v>
-      </c>
-      <c r="L2">
-        <v>0.14</v>
-      </c>
-      <c r="M2">
-        <v>0.406</v>
-      </c>
-      <c r="Z2">
-        <v>0.408</v>
-      </c>
-      <c r="AA2">
-        <v>0.543</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>0.349</v>
-      </c>
-      <c r="C3">
-        <v>0.003</v>
-      </c>
-      <c r="D3">
-        <v>-0.186</v>
-      </c>
-      <c r="E3">
-        <v>0.633</v>
-      </c>
-      <c r="F3">
-        <v>0.323</v>
-      </c>
-      <c r="G3">
-        <v>0.517</v>
-      </c>
-      <c r="H3">
-        <v>-0.062</v>
-      </c>
-      <c r="I3">
-        <v>0.873</v>
-      </c>
-      <c r="J3">
-        <v>0.032</v>
-      </c>
-      <c r="K3">
-        <v>0.9</v>
-      </c>
-      <c r="L3">
-        <v>-0.22</v>
-      </c>
-      <c r="M3">
-        <v>0.519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>0.849</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="B8">
+        <v>0.46</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>-0.038</v>
       </c>
-      <c r="E4">
+      <c r="E8">
         <v>0.756</v>
       </c>
-      <c r="F4">
+      <c r="F8">
         <v>-0.215</v>
       </c>
-      <c r="G4">
+      <c r="G8">
         <v>0.226</v>
       </c>
-      <c r="H4">
+      <c r="H8">
         <v>-0.083</v>
       </c>
-      <c r="I4">
+      <c r="I8">
         <v>0.573</v>
       </c>
-      <c r="J4">
+      <c r="J8">
         <v>-0.205</v>
       </c>
-      <c r="K4">
+      <c r="K8">
         <v>0.243</v>
       </c>
-      <c r="L4">
+      <c r="L8">
         <v>0.047</v>
       </c>
-      <c r="M4">
+      <c r="M8">
         <v>0.709</v>
       </c>
-      <c r="N4">
-        <v>-0.066</v>
-      </c>
-      <c r="O4">
-        <v>0.72</v>
-      </c>
-      <c r="P4">
-        <v>0.044</v>
-      </c>
-      <c r="Q4">
-        <v>0.744</v>
-      </c>
-      <c r="R4">
-        <v>0.025</v>
-      </c>
-      <c r="S4">
-        <v>0.89</v>
-      </c>
-      <c r="T4">
-        <v>0.113</v>
-      </c>
-      <c r="U4">
-        <v>0.364</v>
-      </c>
-      <c r="V4">
-        <v>-0.15</v>
-      </c>
-      <c r="W4">
-        <v>0.32</v>
-      </c>
-      <c r="X4">
-        <v>-0.124</v>
-      </c>
-      <c r="Y4">
-        <v>0.217</v>
-      </c>
-      <c r="Z4">
+      <c r="N8">
         <v>0.091</v>
       </c>
-      <c r="AA4">
+      <c r="O8">
         <v>0.881</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>0.745</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>-0.192</v>
-      </c>
-      <c r="E5">
-        <v>0.492</v>
-      </c>
-      <c r="F5">
-        <v>-0.017</v>
-      </c>
-      <c r="G5">
-        <v>0.95</v>
-      </c>
-      <c r="H5">
-        <v>-0.005</v>
-      </c>
-      <c r="I5">
-        <v>0.982</v>
-      </c>
-      <c r="J5">
-        <v>-0.076</v>
-      </c>
-      <c r="K5">
-        <v>0.793</v>
-      </c>
-      <c r="L5">
-        <v>0.327</v>
-      </c>
-      <c r="M5">
-        <v>0.201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>0.796</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>-0.181</v>
-      </c>
-      <c r="E6">
-        <v>0.317</v>
-      </c>
-      <c r="F6">
-        <v>-0.24</v>
-      </c>
-      <c r="G6">
-        <v>0.183</v>
-      </c>
-      <c r="H6">
-        <v>-0.131</v>
-      </c>
-      <c r="I6">
-        <v>0.479</v>
-      </c>
-      <c r="J6">
-        <v>-0.222</v>
-      </c>
-      <c r="K6">
-        <v>0.429</v>
-      </c>
-      <c r="L6">
-        <v>0.032</v>
-      </c>
-      <c r="M6">
-        <v>0.879</v>
-      </c>
-      <c r="Z6">
-        <v>0.06</v>
-      </c>
-      <c r="AA6">
-        <v>0.9409999999999999</v>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.016</v>
+      </c>
+      <c r="E9">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="F9">
+        <v>-0.447</v>
+      </c>
+      <c r="G9">
+        <v>0.214</v>
+      </c>
+      <c r="H9">
+        <v>0.305</v>
+      </c>
+      <c r="I9">
+        <v>0.204</v>
+      </c>
+      <c r="J9">
+        <v>0.002</v>
+      </c>
+      <c r="K9">
+        <v>0.994</v>
+      </c>
+      <c r="L9">
+        <v>0.283</v>
+      </c>
+      <c r="M9">
+        <v>0.204</v>
+      </c>
+      <c r="N9">
+        <v>0.124</v>
+      </c>
+      <c r="O9">
+        <v>0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1628,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1391,245 +1639,368 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>-0.142</v>
+        <v>-0.179</v>
       </c>
       <c r="C2">
-        <v>0.007</v>
+        <v>0.063</v>
       </c>
       <c r="D2">
-        <v>-0.115</v>
+        <v>-0.306</v>
       </c>
       <c r="E2">
-        <v>0.396</v>
+        <v>0.16</v>
       </c>
       <c r="F2">
-        <v>0.033</v>
+        <v>-0.395</v>
       </c>
       <c r="G2">
-        <v>0.779</v>
+        <v>0.282</v>
       </c>
       <c r="H2">
-        <v>-0.005</v>
+        <v>-0.028</v>
       </c>
       <c r="I2">
-        <v>0.601</v>
+        <v>0.192</v>
       </c>
       <c r="J2">
-        <v>-0.019</v>
+        <v>-0.048</v>
       </c>
       <c r="K2">
-        <v>0.7</v>
+        <v>0.285</v>
       </c>
       <c r="L2">
-        <v>-0.019</v>
+        <v>-0.048</v>
       </c>
       <c r="M2">
-        <v>0.7</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>-0.111</v>
+        <v>-0.14</v>
       </c>
       <c r="C3">
-        <v>0.021</v>
+        <v>0.4</v>
       </c>
       <c r="D3">
-        <v>-0.198</v>
+        <v>-0.302</v>
       </c>
       <c r="E3">
-        <v>0.23</v>
+        <v>0.362</v>
       </c>
       <c r="F3">
-        <v>-0.348</v>
+        <v>-0.192</v>
       </c>
       <c r="G3">
-        <v>0.247</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H3">
-        <v>0.039</v>
+        <v>0.012</v>
       </c>
       <c r="I3">
-        <v>0.454</v>
+        <v>0.626</v>
       </c>
       <c r="J3">
-        <v>0.126</v>
+        <v>-0.026</v>
       </c>
       <c r="K3">
-        <v>0.196</v>
+        <v>0.474</v>
       </c>
       <c r="L3">
-        <v>0.126</v>
+        <v>-0.026</v>
       </c>
       <c r="M3">
-        <v>0.196</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>-0.157</v>
+        <v>-0.222</v>
       </c>
       <c r="C4">
-        <v>0.008</v>
+        <v>0.17</v>
       </c>
       <c r="D4">
-        <v>-0.163</v>
+        <v>-0.159</v>
       </c>
       <c r="E4">
-        <v>0.062</v>
+        <v>0.059</v>
       </c>
       <c r="F4">
-        <v>-0.061</v>
+        <v>-0.115</v>
       </c>
       <c r="G4">
-        <v>0.584</v>
+        <v>0.213</v>
       </c>
       <c r="H4">
-        <v>-0.105</v>
+        <v>-0.012</v>
       </c>
       <c r="I4">
-        <v>0.023</v>
+        <v>0.655</v>
       </c>
       <c r="J4">
-        <v>-0.207</v>
+        <v>-0.026</v>
       </c>
       <c r="K4">
-        <v>0.016</v>
+        <v>0.989</v>
       </c>
       <c r="L4">
-        <v>-0.207</v>
+        <v>-0.026</v>
       </c>
       <c r="M4">
-        <v>0.016</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>-0.179</v>
+        <v>-0.111</v>
       </c>
       <c r="C5">
-        <v>0.063</v>
+        <v>0.021</v>
       </c>
       <c r="D5">
-        <v>-0.306</v>
+        <v>-0.198</v>
       </c>
       <c r="E5">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="F5">
-        <v>-0.395</v>
+        <v>-0.348</v>
       </c>
       <c r="G5">
-        <v>0.282</v>
+        <v>0.247</v>
       </c>
       <c r="H5">
-        <v>-0.028</v>
+        <v>0.039</v>
       </c>
       <c r="I5">
-        <v>0.192</v>
+        <v>0.454</v>
       </c>
       <c r="J5">
-        <v>-0.048</v>
+        <v>0.126</v>
       </c>
       <c r="K5">
-        <v>0.285</v>
+        <v>0.196</v>
       </c>
       <c r="L5">
-        <v>-0.048</v>
+        <v>0.126</v>
       </c>
       <c r="M5">
-        <v>0.285</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>-0.222</v>
+        <v>-0.142</v>
       </c>
       <c r="C6">
-        <v>0.17</v>
+        <v>0.007</v>
       </c>
       <c r="D6">
-        <v>-0.159</v>
+        <v>-0.115</v>
       </c>
       <c r="E6">
-        <v>0.059</v>
+        <v>0.396</v>
       </c>
       <c r="F6">
-        <v>-0.115</v>
+        <v>0.033</v>
       </c>
       <c r="G6">
-        <v>0.213</v>
+        <v>0.779</v>
       </c>
       <c r="H6">
-        <v>-0.012</v>
+        <v>-0.005</v>
       </c>
       <c r="I6">
-        <v>0.655</v>
+        <v>0.601</v>
       </c>
       <c r="J6">
-        <v>-0.026</v>
+        <v>-0.019</v>
       </c>
       <c r="K6">
-        <v>0.989</v>
+        <v>0.7</v>
       </c>
       <c r="L6">
-        <v>-0.026</v>
+        <v>-0.019</v>
       </c>
       <c r="M6">
-        <v>0.989</v>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>-0.142</v>
+      </c>
+      <c r="C7">
+        <v>0.001</v>
+      </c>
+      <c r="D7">
+        <v>-0.13</v>
+      </c>
+      <c r="E7">
+        <v>0.195</v>
+      </c>
+      <c r="F7">
+        <v>-0.081</v>
+      </c>
+      <c r="G7">
+        <v>0.408</v>
+      </c>
+      <c r="H7">
+        <v>0.041</v>
+      </c>
+      <c r="I7">
+        <v>0.017</v>
+      </c>
+      <c r="J7">
+        <v>0.004</v>
+      </c>
+      <c r="K7">
+        <v>0.646</v>
+      </c>
+      <c r="L7">
+        <v>0.004</v>
+      </c>
+      <c r="M7">
+        <v>0.646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>-0.157</v>
+      </c>
+      <c r="C8">
+        <v>0.008</v>
+      </c>
+      <c r="D8">
+        <v>-0.163</v>
+      </c>
+      <c r="E8">
+        <v>0.062</v>
+      </c>
+      <c r="F8">
+        <v>-0.061</v>
+      </c>
+      <c r="G8">
+        <v>0.584</v>
+      </c>
+      <c r="H8">
+        <v>-0.105</v>
+      </c>
+      <c r="I8">
+        <v>0.023</v>
+      </c>
+      <c r="J8">
+        <v>-0.207</v>
+      </c>
+      <c r="K8">
+        <v>0.016</v>
+      </c>
+      <c r="L8">
+        <v>-0.207</v>
+      </c>
+      <c r="M8">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>-0.297</v>
+      </c>
+      <c r="C9">
+        <v>0.002</v>
+      </c>
+      <c r="D9">
+        <v>-0.262</v>
+      </c>
+      <c r="E9">
+        <v>0.012</v>
+      </c>
+      <c r="F9">
+        <v>-0.254</v>
+      </c>
+      <c r="G9">
+        <v>0.064</v>
+      </c>
+      <c r="H9">
+        <v>-0.147</v>
+      </c>
+      <c r="I9">
+        <v>0.138</v>
+      </c>
+      <c r="J9">
+        <v>-0.134</v>
+      </c>
+      <c r="K9">
+        <v>0.823</v>
+      </c>
+      <c r="L9">
+        <v>-0.134</v>
+      </c>
+      <c r="M9">
+        <v>0.823</v>
       </c>
     </row>
   </sheetData>
